--- a/similarities/split_global/harmonic_similarity_timestamps_294.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_294.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'D:7/2']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:maj', 'B:7']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:36.405260', '0:00:40.062403')]</t>
+          <t>('0:01:38.060000', '0:01:45.600000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:16.880000', '0:02:26.260000')]</t>
+          <t>('0:01:45.200000', '0:01:52.400000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=36.40526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=136.88']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=105.2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:00:27.250000', '0:00:30.810000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:05.544000')]</t>
+          <t>('0:00:49.280000', '0:00:56.880000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G', 'G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:54.760000', '0:01:04.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.279000', '0:00:16.531000')]</t>
+          <t>('0:00:58.265237', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.560000', '0:00:04.260000')]</t>
+          <t>('0:00:54.180000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:02.612267', '0:00:20.410362')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+          <t>('0:00:00.320000', '0:00:09.540000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_87</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:01:34.060000', '0:01:53.500000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.880000', '0:00:06.560000'), ('0:00:09.620000', '0:00:14.180000')]</t>
+          <t>('0:00:25', '0:00:35.520000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:00:00.340000', '0:00:02.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000'), ('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.820000', '0:00:46.240000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.780000', '0:00:20.500000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=18.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=12.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:17.260000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=17.26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:53.140000', '0:01:54.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:44.200000', '0:00:59.980000')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=113.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:14.360000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:08.460000', '0:00:13.460000'), ('0:00:35.600000', '0:00:37.240000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:28.960000', '0:00:49.060000'), ('0:00:01.920000', '0:00:08.320000'), ('0:00:56.780000', '0:01:05.580000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=56.78']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:7', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:13.900000'), ('0:00:01.600000', '0:00:11.260000')]</t>
+          <t>('0:04:05.350000', '0:04:09.930000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:14.180000', '0:00:20.200000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=245.35</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=14.18</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
